--- a/config_debug/fish_3d_touzi_config.xlsx
+++ b/config_debug/fish_3d_touzi_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,27 +29,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,80</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60</t>
+    <t>0,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +135,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +143,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,18 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -441,55 +448,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_touzi_config.xlsx
+++ b/config_debug/fish_3d_touzi_config.xlsx
@@ -19,37 +19,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>weight|权重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>round|轮数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>100,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>95,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>0,0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>80,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,0</t>
+    <t>85,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro|百分比</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +435,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,10 +446,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -453,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -462,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -480,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="2"/>
@@ -490,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -499,12 +503,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_debug/fish_3d_touzi_config.xlsx
+++ b/config_debug/fish_3d_touzi_config.xlsx
@@ -25,22 +25,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>95,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>56,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>30,0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -49,11 +33,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>85,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>pro|百分比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="2"/>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
